--- a/fhir/core/StructureDefinition-ipa-dk-core-practitioner.xlsx
+++ b/fhir/core/StructureDefinition-ipa-dk-core-practitioner.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.0</t>
+    <t>3.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-01T19:23:09+01:00</t>
+    <t>2025-12-19T17:27:08+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>HL7 Denmark (http://www.hl7.dk, jenskristianvilladsen@gmail.com)</t>
+    <t>HL7 Denmark (http://www.hl7.dk, dk-affiliate@hl7.dk)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -364,7 +364,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -708,7 +708,7 @@
 </t>
   </si>
   <si>
-    <t>Slice based on the identifier.systemm value which allows for official qualifications to
+    <t>Slice based on the identifier.system value which allows for official qualifications to
 Declaring the slices, and their cardinalities, to allow a KL-code and a SNOMED CT code</t>
   </si>
   <si>
@@ -834,7 +834,7 @@
     <t>Practitioner.qualification.issuer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1225,17 +1225,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="64.078125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.57421875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="24.96875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="55.27734375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="34.13671875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="21.5390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="33.17578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="79.46484375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="68.546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1244,26 +1244,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="55.9453125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="60.15625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="21.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="78.30078125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.80078125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="48.2578125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="51.89453125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.74609375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="67.54296875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="28.8359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="31.9140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="52.98828125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="50.25390625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="27.53125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="45.70703125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="43.34765625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="28.5078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4258,7 +4258,7 @@
         <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>77</v>
